--- a/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,5</t>
+          <t>2,17; 11,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,66</t>
+          <t>6,19; 13,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,86</t>
+          <t>5,1; 10,47</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,66</t>
+          <t>5,54; 9,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,46</t>
+          <t>12,98; 17,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,03</t>
+          <t>9,92; 13,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,42</t>
+          <t>4,45; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 14,67</t>
+          <t>11,49; 14,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 10,69</t>
+          <t>8,19; 10,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,46</t>
+          <t>4,73; 8,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,76</t>
+          <t>6,63; 13,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,12</t>
+          <t>6,64; 10,23</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,21</t>
+          <t>7,23; 10,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,69</t>
+          <t>11,54; 15,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,81</t>
+          <t>9,94; 12,84</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,0</t>
+          <t>6,21; 7,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,74</t>
+          <t>11,27; 13,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,35; 10,75</t>
+          <t>9,22; 10,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 11,89</t>
+          <t>2,08; 11,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 13,69</t>
+          <t>6,26; 13,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,47</t>
+          <t>5,05; 10,86</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,6</t>
+          <t>5,45; 9,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 17,34</t>
+          <t>12,82; 17,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,09</t>
+          <t>9,96; 13,03</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,68</t>
+          <t>4,44; 7,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,49; 14,69</t>
+          <t>11,39; 14,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 10,62</t>
+          <t>8,17; 10,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,57</t>
+          <t>4,86; 8,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 13,18</t>
+          <t>6,67; 12,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,23</t>
+          <t>6,59; 10,12</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,89</t>
+          <t>7,36; 11,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,94</t>
+          <t>11,59; 15,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 12,84</t>
+          <t>10,09; 12,81</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,98</t>
+          <t>6,23; 8,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 13,67</t>
+          <t>11,36; 13,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,22; 10,74</t>
+          <t>9,35; 10,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,5</t>
+          <t>4,89; 8,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,66</t>
+          <t>11,88; 15,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,86</t>
+          <t>8,94; 11,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,66</t>
+          <t>2,19; 6,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,46</t>
+          <t>11,22; 14,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,03</t>
+          <t>5,77; 9,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,42</t>
+          <t>4,6; 8,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 14,67</t>
+          <t>4,48; 11,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 10,69</t>
+          <t>4,72; 9,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,46</t>
+          <t>7,07; 10,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,76</t>
+          <t>9,84; 14,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,12</t>
+          <t>9,16; 12,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,21</t>
+          <t>4,9; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,69</t>
+          <t>9,58; 12,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,81</t>
+          <t>7,94; 9,99</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,66%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 8,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,36; 13,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,35; 10,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,45</t>
+          <t>4,86; 8,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 15,85</t>
+          <t>11,89; 15,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,64</t>
+          <t>8,88; 11,79</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,46</t>
+          <t>2,45; 6,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 14,44</t>
+          <t>11,22; 14,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,81</t>
+          <t>5,29; 9,61</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,06</t>
+          <t>4,64; 8,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,73</t>
+          <t>4,05; 11,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,14</t>
+          <t>4,49; 9,25</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,86</t>
+          <t>6,82; 10,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,42</t>
+          <t>9,79; 14,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,01</t>
+          <t>9,11; 12,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,32</t>
+          <t>4,87; 7,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,88</t>
+          <t>9,3; 12,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,94; 9,99</t>
+          <t>7,91; 9,93</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que toma algún remedio para dormir (no medicamentos)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41527</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>92177</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>133703</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30811; 54139</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>80294; 105950</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>116338; 154413</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55109</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>121751</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>176860</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29192; 77335</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>107459; 138277</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>113724; 206669</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43046</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80106</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>123152</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32682; 56459</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37710; 110312</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73423; 151358</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>79235</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>133597</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>212832</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>63215; 98762</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>106978; 156509</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>183915; 243304</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>218916</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>427630</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>646547</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>168299; 252267</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>340066; 470832</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>563165; 706476</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>